--- a/API_AUTO/test_data/TestData.xlsx
+++ b/API_AUTO/test_data/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="27180" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="测试用例" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test-lhj" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>caseID</t>
   </si>
@@ -24,7 +24,10 @@
     <t>module</t>
   </si>
   <si>
-    <t>title</t>
+    <t>precondition</t>
+  </si>
+  <si>
+    <t>functionPoint</t>
   </si>
   <si>
     <t>description</t>
@@ -45,76 +48,175 @@
     <t>0A0001</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-  </si>
-  <si>
-    <t>http://polybzh.julytech.cn/back/authenticate</t>
+    <t>UserRegist</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>使用正常数据</t>
+  </si>
+  <si>
+    <t>https://gchn.julytech.cn/back/api/users</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>{"username": "admin", "password": "000000", "captcha": "12345","randomStr": "123456"}</t>
-  </si>
-  <si>
-    <t>None</t>
+    <r>
+      <t>{"account":"test005","realName":"test005","email":"2021021910@test.com","mobile":"18111111112","companyId":1,"departments":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>待定</t>
   </si>
   <si>
     <t>0A0002</t>
   </si>
   <si>
-    <t>输入错误密码</t>
-  </si>
-  <si>
-    <t>{"username": "admin", "password": "111111", "captcha": "12345","randomStr": "123456"}</t>
+    <t>不输入用户姓名</t>
+  </si>
+  <si>
+    <r>
+      <t>{"account":"test005","email":"2021021910@test.com","mobile":"18111111112","companyId":1,"departments":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
   </si>
   <si>
     <t>0A0003</t>
   </si>
   <si>
-    <t>不输入密码</t>
-  </si>
-  <si>
-    <t>{"username": "admin", "password": "", "captcha": "12345","randomStr": "123456"}</t>
+    <t>不输入邮箱</t>
+  </si>
+  <si>
+    <r>
+      <t>{"account":"test005","realName":"test005","mobile":"18111111112","companyId":1,"departments":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
   </si>
   <si>
     <t>0A0004</t>
   </si>
   <si>
-    <t>不输入用户名</t>
-  </si>
-  <si>
-    <t>{"username": "", "password": "000000", "captcha": "12345","randomStr": "123456"}</t>
-  </si>
-  <si>
-    <t>0A0005</t>
-  </si>
-  <si>
-    <t>getUserInfo</t>
-  </si>
-  <si>
-    <t>获取用户信息-带参数</t>
-  </si>
-  <si>
-    <t>http://polybzh.julytech.cn/back/userInfo</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>/</t>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <r>
+      <t>{"account":"test005","realName":"test005","email":"2021021910@test.com","companyId":1,"departments":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
   </si>
   <si>
     <t>0A0006</t>
   </si>
   <si>
-    <t>获取用户信息-不带参数</t>
-  </si>
-  <si>
-    <t>No_idtoken</t>
+    <t>不输入公司id</t>
+  </si>
+  <si>
+    <t>0A0007</t>
+  </si>
+  <si>
+    <t>不输入账号</t>
+  </si>
+  <si>
+    <r>
+      <t>{"realName":"test005","email":"2021021910@test.com","mobile":"18111111112","companyId":1,"departments":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>0A0008</t>
+  </si>
+  <si>
+    <t>不输入部门</t>
+  </si>
+  <si>
+    <t>{"account":"test005","realName":"test005","email":"2021021910@test.com","mobile":"18111111112","companyId":1}</t>
+  </si>
+  <si>
+    <t>0A0009</t>
+  </si>
+  <si>
+    <t>{"account":"test005","realName":"test005","email":"2021021910@test.com","mobile":"18111111112","companyId":2}</t>
   </si>
   <si>
     <t>用例编号</t>
@@ -148,12 +250,6 @@
   </si>
   <si>
     <t>用户注册</t>
-  </si>
-  <si>
-    <t>新增用户</t>
-  </si>
-  <si>
-    <t>使用正常数据</t>
   </si>
   <si>
     <t>1.用户已登录
@@ -169,9 +265,6 @@
     <t>0A002</t>
   </si>
   <si>
-    <t>不输入用户姓名</t>
-  </si>
-  <si>
     <t>其余数据均正常，但不输入用户姓名</t>
   </si>
   <si>
@@ -181,43 +274,70 @@
     <t>0A003</t>
   </si>
   <si>
-    <t>不输入邮箱</t>
-  </si>
-  <si>
     <t>其余数据均正常，但不输入邮箱</t>
   </si>
   <si>
     <t>0A004</t>
   </si>
   <si>
-    <t>不输入手机号</t>
-  </si>
-  <si>
     <t>其余数据均正常，但不输入手机号</t>
   </si>
   <si>
     <t>0A005</t>
   </si>
   <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
     <t>其余数据均正常，但不输入密码</t>
   </si>
   <si>
     <t>0A006</t>
   </si>
   <si>
-    <t>不输入公司id</t>
-  </si>
-  <si>
     <t>其余数据均正常，但不输入公司id</t>
   </si>
   <si>
     <t>0A007</t>
   </si>
   <si>
-    <t>不输入账号</t>
-  </si>
-  <si>
     <t>其余数据均正常，但不输入登陆账号</t>
+  </si>
+  <si>
+    <t>UserLogin</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>http://polybzh.julytech.cn/back/authenticate</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc57dcac"}</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc58dcac"}</t>
+  </si>
+  <si>
+    <t>不输入验证码</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc59dcac"}</t>
+  </si>
+  <si>
+    <t>输入错误账号</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc60dcac"}</t>
+  </si>
+  <si>
+    <t>输入错误密码</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc61dcac"}</t>
   </si>
 </sst>
 </file>
@@ -230,13 +350,23 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -255,14 +385,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +400,83 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +491,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -292,83 +499,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,14 +527,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,13 +543,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +597,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,151 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,21 +742,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,19 +773,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,8 +797,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +828,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,154 +863,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1230,192 +1372,281 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="24.225" customWidth="1"/>
-    <col min="5" max="5" width="33.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="20.8916666666667" customWidth="1"/>
-    <col min="7" max="7" width="64.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="23.1083333333333" customWidth="1"/>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="5" width="24.225" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="20.8916666666667" customWidth="1"/>
+    <col min="8" max="8" width="64.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4">
-        <v>40301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4">
-        <v>40001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4">
-        <v>40001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5" t="s">
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10000</v>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1430,223 +1661,225 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="9" width="9.375" customWidth="1"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" ht="67.5" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="2" ht="27" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="27" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" ht="67.5" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" ht="27" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" ht="67.5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" ht="27" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" ht="27" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" ht="67.5" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" ht="67.5" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="27" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" ht="67.5" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1658,14 +1891,229 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="38.375" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="106.375" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/API_AUTO/test_data/TestData.xlsx
+++ b/API_AUTO/test_data/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="13140" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
-    <sheet name="public" sheetId="3" r:id="rId3"/>
+    <sheet name="public" sheetId="4" r:id="rId3"/>
+    <sheet name="测试用例" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
   <si>
     <t>caseID</t>
   </si>
@@ -48,6 +49,9 @@
     <t>result</t>
   </si>
   <si>
+    <t>TestResult</t>
+  </si>
+  <si>
     <t>UserLogin_0001</t>
   </si>
   <si>
@@ -72,7 +76,7 @@
     <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
   </si>
   <si>
-    <t>{"idToken":"eyJhbGciOiJIUzUxMiIsInppcCI6IkRFRiJ9.eNpMyksKgDAMANG7ZG0h0ZpWbxOthYiW4gcE8e6KuHA5jzkhL5p6zTJBCxJmTVDAune_Go4MLTHVnhErKkBle8HiB-Omz48UBqo4GBsdG8uMRsoGTe0oNs5GH0qB6wYAAP__.gn_7ze_OgOVZ7JgWjDc_WVGjO8OlnHico55R5JgZUPF9u0qYVSsa9GbgpG4l7vRNKVSRndJjGA4GLVgiF3903g","expiresIn":1799999}</t>
+    <t>{"idToken":"eyJhbGciOiJIUzUxMiIsInppcCI6IkRFRiJ9.eNpMyk0KgCAQQOG7zFpBzTHtNo4pTFRIPxBEdy-iRcv38U6oC8-Jaxyhg9hPPIOAdadf5aNCp51G74wKTgDH7QWrPhg2fn7tewxolSzFttJmQzI2WUsTkDzl4jB5uG4AAAD__w.OulWlB4NKzjv3xxqM0wNrjdWb5-TIOka1p-ermgoQ6fcUcPfTBJzkbg-fZ8mgzx2L0NpOreLFfzJlHvy3M13Yw","expiresIn":1799999}</t>
   </si>
   <si>
     <t>UserLogin_0002</t>
@@ -84,9 +88,6 @@
     <t>{"username":"","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc57dcac"}</t>
   </si>
   <si>
-    <t>{"code":40001,"message":null,"data":[{"field":"username","message":"must not be empty"}]}</t>
-  </si>
-  <si>
     <t>UserLogin_0003</t>
   </si>
   <si>
@@ -96,6 +97,9 @@
     <t>{"username":"admin","password":"","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc58dcac"}</t>
   </si>
   <si>
+    <t>{"code":40001,"message":null,"data":[{"field":"password","message":"must not be empty"}]}</t>
+  </si>
+  <si>
     <t>UserLogin_0004</t>
   </si>
   <si>
@@ -147,7 +151,7 @@
     <t>http://polybzh.julytech.cn/back/jdt/users</t>
   </si>
   <si>
-    <t>{"realName": ${real_name},"email": ${email},"mobile": ${mobile},"password": "000000","companyId": 15,"account": ${account}}</t>
+    <t>{"realName": "test202002201455","email": "7361705501@test.com","mobile": "202102201454","password": "000000","companyId": 15,"account": "test001"}</t>
   </si>
   <si>
     <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
@@ -159,13 +163,16 @@
     <t>WithAuthentication</t>
   </si>
   <si>
+    <t>{"realName": "test202002201456","email": "7361705502@test.com","mobile": "13143742901","password": "000000","companyId": 15,"account": "test002"}</t>
+  </si>
+  <si>
     <t>UserRegist_0003</t>
   </si>
   <si>
     <t>不输入realName</t>
   </si>
   <si>
-    <t>{"realName": "","email": ${email},"mobile": ${mobile},"password": "000000","companyId": 15,"account": ${account}}</t>
+    <t>{"realName": "","email": "7361705503@test.com","mobile": "13143742902","password": "000000","companyId": 15,"account": "test003"}</t>
   </si>
   <si>
     <t>真实姓名必填，错误</t>
@@ -177,7 +184,7 @@
     <t>不输入email</t>
   </si>
   <si>
-    <t>{"realName": ${real_name},"email": "","mobile": ${mobile},"password": "000000","companyId": 15,"account": ${account}}</t>
+    <t>{"realName": "test202002201457","email": "","mobile": "13143742903","password": "000000","companyId": 15,"account": "test004"}</t>
   </si>
   <si>
     <t>邮箱必填，错误</t>
@@ -189,7 +196,7 @@
     <t>不输入mobile</t>
   </si>
   <si>
-    <t>{"realName": ${real_name},"email": ${email},"mobile": "","password": "000000","companyId": 15,"account": ${account}}</t>
+    <t>{"realName": "test202002201458","email": "7361705504@test.com","mobile": "","password": "000000","companyId": 15,"account": "test005"}</t>
   </si>
   <si>
     <t>UserRegist_0006</t>
@@ -198,7 +205,7 @@
     <t>不输入password</t>
   </si>
   <si>
-    <t>{"realName": ${real_name},"email": ${email},"mobile": ${mobile},"password": "","companyId": 15,"account": ${account}}</t>
+    <t>{"realName": "test202002201459","email": "7361705505@test.com","mobile": "13143742904","password": "","companyId": 15,"account": "test006"}</t>
   </si>
   <si>
     <t>待定</t>
@@ -210,7 +217,7 @@
     <t>不输入companyId</t>
   </si>
   <si>
-    <t>{"realName": ${real_name},"email": ${email},"mobile": ${mobile},"password": "000000","companyId": "","account": ${account}}</t>
+    <t>{"realName": "test202002201460","email": "7361705506@test.com","mobile": "13143742905","password": "000000","companyId": "","account": "test007"}</t>
   </si>
   <si>
     <t>UserRegist_0008</t>
@@ -276,28 +283,170 @@
     <t>{"realName": "test202002201565","email": "73617055011@test.com","mobile": "13143742910","password": "000000","companyId": 15,"account": "test03"}</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>real_name</t>
-  </si>
-  <si>
-    <t>test1614176625960</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>1614176692056@test.com</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>account</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>GZJ-1</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>GZJ-2</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>GZJ-3</t>
+  </si>
+  <si>
+    <t>GZJ-4</t>
+  </si>
+  <si>
+    <t>GZJ-5</t>
+  </si>
+  <si>
+    <t>GZJ-6</t>
+  </si>
+  <si>
+    <t>GZJ-7</t>
+  </si>
+  <si>
+    <t>GZJ-8</t>
+  </si>
+  <si>
+    <t>GZJ-9</t>
+  </si>
+  <si>
+    <t>GZJ-10</t>
+  </si>
+  <si>
+    <t>GZJ-11</t>
+  </si>
+  <si>
+    <t>GZJ-12</t>
+  </si>
+  <si>
+    <t>GZJ-13</t>
+  </si>
+  <si>
+    <t>GZJ-14</t>
+  </si>
+  <si>
+    <t>GZJ-15</t>
+  </si>
+  <si>
+    <t>GZJ-16</t>
+  </si>
+  <si>
+    <t>GZJ-17</t>
+  </si>
+  <si>
+    <t>GZJ-18</t>
+  </si>
+  <si>
+    <t>GZJ-19</t>
+  </si>
+  <si>
+    <t>GZJ-20</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>系统模块</t>
+  </si>
+  <si>
+    <t>功能点</t>
+  </si>
+  <si>
+    <t>用例说明</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>操作步骤</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>失败原因</t>
+  </si>
+  <si>
+    <t>0A001</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+  </si>
+  <si>
+    <t>1.使用正常数据进行新增用户</t>
+  </si>
+  <si>
+    <t>新增成功,账号状态为未激活</t>
+  </si>
+  <si>
+    <t>0A002</t>
+  </si>
+  <si>
+    <t>不输入用户姓名</t>
+  </si>
+  <si>
+    <t>其余数据均正常，但不输入用户姓名</t>
+  </si>
+  <si>
+    <t>code:估计为失败...swagger没有写</t>
+  </si>
+  <si>
+    <t>0A003</t>
+  </si>
+  <si>
+    <t>不输入邮箱</t>
+  </si>
+  <si>
+    <t>其余数据均正常，但不输入邮箱</t>
+  </si>
+  <si>
+    <t>0A004</t>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <t>其余数据均正常，但不输入手机号</t>
+  </si>
+  <si>
+    <t>0A005</t>
+  </si>
+  <si>
+    <t>其余数据均正常，但不输入密码</t>
+  </si>
+  <si>
+    <t>0A006</t>
+  </si>
+  <si>
+    <t>不输入公司id</t>
+  </si>
+  <si>
+    <t>其余数据均正常，但不输入公司id</t>
+  </si>
+  <si>
+    <t>0A007</t>
+  </si>
+  <si>
+    <t>其余数据均正常，但不输入登陆账号</t>
   </si>
 </sst>
 </file>
@@ -305,17 +454,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,30 +495,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,25 +534,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,6 +573,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -446,8 +617,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,21 +638,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -484,25 +648,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,157 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,32 +853,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +882,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -754,15 +907,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,6 +934,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -810,146 +974,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,11 +1124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1311,230 +1481,264 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.225" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="6" width="46" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.8916666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="64.1083333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="64.1111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8">
         <v>40001</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>40001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="J4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="K4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="8">
         <v>40001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="8">
         <v>40301</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8">
         <v>40301</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1547,503 +1751,506 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.38333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.37962962962963" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.1083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.38333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="106.383333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.37962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="106.37962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.8888888888889" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="5">
         <v>10000</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>44</v>
+      <c r="J7" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>44</v>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="J11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="5">
         <v>10000</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="J12" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="5">
         <v>10000</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="J13" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="5">
         <v>10000</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="J14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="5">
         <v>10000</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="4">
-        <v>10000</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="4">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>44</v>
+      <c r="J15" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2056,64 +2263,415 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.13333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="30.6333333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.3833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="2" width="8.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.12962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="30.6296296296296" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13.3796296296296" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="3">
-        <v>15110995100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="43.2" customHeight="1" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="43.2" customHeight="1" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="43.2" customHeight="1" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="43.2" customHeight="1" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="43.2" customHeight="1" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" ht="43.2" customHeight="1" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API_AUTO/test_data/TestData.xlsx
+++ b/API_AUTO/test_data/TestData.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="27135"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="public" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="all" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="parameters" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TestData" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -18,12 +20,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF333333"/>
+      <sz val="10.5"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -34,43 +65,42 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF6A8759"/>
-      <sz val="7.2"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -92,15 +122,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -108,9 +131,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,44 +185,14 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +207,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -192,187 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,11 +432,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,15 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -469,23 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,236 +512,280 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="23" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="17" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1087,357 +1149,356 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="2" style="1" width="13"/>
-    <col customWidth="1" max="5" min="4" style="1" width="24.225"/>
-    <col customWidth="1" max="6" min="6" style="1" width="46"/>
-    <col customWidth="1" max="7" min="7" style="1" width="20.8916666666667"/>
-    <col customWidth="1" max="8" min="8" style="1" width="64.10833333333331"/>
-    <col customWidth="1" max="9" min="9" style="1" width="23.1083333333333"/>
+    <col width="14" customWidth="1" style="6" min="1" max="1"/>
+    <col width="9.25" customWidth="1" style="6" min="2" max="2"/>
+    <col width="17.3796296296296" customWidth="1" style="6" min="3" max="3"/>
+    <col width="18.75" customWidth="1" style="6" min="4" max="4"/>
+    <col width="16" customWidth="1" style="6" min="5" max="5"/>
+    <col width="43.25" customWidth="1" style="6" min="6" max="6"/>
+    <col width="9.12962962962963" customWidth="1" style="6" min="7" max="7"/>
+    <col width="109.37962962963" customWidth="1" style="6" min="8" max="8"/>
+    <col width="11.8796296296296" customWidth="1" style="6" min="9" max="9"/>
+    <col width="14.0833333333333" customWidth="1" style="6" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="34.8" customFormat="1" customHeight="1" s="9">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>caseID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>precondition</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>functionPoint</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0001</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="16" t="inlineStr">
         <is>
           <t>使用正常数据</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
-        </is>
-      </c>
-      <c r="I2" s="7" t="n"/>
-      <c r="J2" s="0" t="inlineStr">
-        <is>
-          <t>{"idToken":"eyJhbGciOiJIUzUxMiIsInppcCI6IkRFRiJ9.eNpMikkKgDAMAP-Scwutxhr9TVMjRFSKCwji3xXx4GVghjkhLzonzXGEFmI36QwG1p1_JkeG1gcfXHhABjRub8DiC8Omz4-x5l4qsU3qkkUitEws1knliDkgNSVcNwAAAP__.aUqNjZNyztiYVGX-4bCa4e92ZC3OlMS86Lu2ZPzw9A1YNi8PBkwMHYHx2B6RLFx6ogsEOmPcHULdrAfu6AhCRw","expiresIn":1799999}</t>
-        </is>
-      </c>
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t>{"username":"${username}","password":"${password}","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
+        </is>
+      </c>
+      <c r="I2" s="17" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="J2" s="16" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0002</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>不输入账号</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="16" t="inlineStr">
         <is>
           <t>{"username":"","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc57dcac"}</t>
         </is>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="16" t="n">
         <v>40001</v>
       </c>
-      <c r="J3" s="0" t="inlineStr">
-        <is>
-          <t>{"code":40001,"message":null,"data":[{"field":"username","message":"must not be empty"}]}</t>
-        </is>
-      </c>
+      <c r="J3" s="16" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0003</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin","password":"","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc58dcac"}</t>
         </is>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="16" t="n">
         <v>40001</v>
       </c>
-      <c r="J4" s="0" t="inlineStr">
-        <is>
-          <t>{"code":40001,"message":null,"data":[{"field":"password","message":"must not be empty"}]}</t>
-        </is>
-      </c>
+      <c r="J4" s="16" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0004</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>不输入验证码</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin","password":"000000","captcha":"","randomStr":"9b252966-a8db-4467-9817-6c22fc59dcac"}</t>
         </is>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="16" t="n">
         <v>40001</v>
       </c>
+      <c r="J5" s="16" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0005</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="17" t="inlineStr">
         <is>
           <t>输入不存在账号</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin123","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc60dcac"}</t>
         </is>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="16" t="n">
         <v>40301</v>
       </c>
+      <c r="J6" s="16" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0006</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>输入错误密码</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H7" s="6" t="inlineStr">
+      <c r="H7" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin","password":"123456","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc61dcac"}</t>
         </is>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="16" t="n">
         <v>40301</v>
       </c>
+      <c r="J7" s="16" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1450,791 +1511,736 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="7.38333333333333"/>
-    <col customWidth="1" max="2" min="2" style="1" width="11.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="14.8833333333333"/>
-    <col customWidth="1" max="5" min="5" style="1" width="36.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="50.1083333333333"/>
-    <col customWidth="1" max="7" min="7" style="1" width="7.38333333333333"/>
-    <col customWidth="1" max="8" min="8" style="1" width="106.383333333333"/>
-    <col customWidth="1" max="9" min="9" style="1" width="20.8916666666667"/>
+    <col width="15.6296296296296" customWidth="1" style="6" min="1" max="1"/>
+    <col width="10.6296296296296" customWidth="1" style="6" min="2" max="2"/>
+    <col width="19" customWidth="1" style="6" min="3" max="3"/>
+    <col width="18.8796296296296" customWidth="1" style="6" min="4" max="4"/>
+    <col width="19.3796296296296" customWidth="1" style="6" min="5" max="5"/>
+    <col width="26.8796296296296" customWidth="1" style="6" min="6" max="6"/>
+    <col width="11.5" customWidth="1" style="6" min="7" max="7"/>
+    <col width="56.6296296296296" customWidth="1" style="6" min="8" max="8"/>
+    <col width="14.1296296296296" customWidth="1" style="10" min="9" max="9"/>
+    <col width="78.5" customWidth="1" style="6" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="34.8" customFormat="1" customHeight="1" s="9">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>caseID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>precondition</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>functionPoint</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="36" customHeight="1" s="6">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>UserLogin_0001</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>使用正常数据</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>{"username":"admin","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t>{"username":"${admin_username}","password":"${admin_password}","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
+        </is>
+      </c>
+      <c r="I2" s="15" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>{'idToken': 'eyJhbGciOiJIUzUxMiIsInppcCI6IkRFRiJ9.eNpMyk0KgCAQQOG7zDqhQWdMb6OpMFEh_UAQ3b2IFi3fxzuhLjL3UsMIHkKaZIYG1j3-Kh8VPDKSZdKsG5CwvaDdB8Mmz8-YbCxkFHYhK5MLqsg6KWNdV1KbDcUWrhsAAP__.gIhrupBeWoI7_FW-CAM1MQqnphDR4BVGKhR6lFQE8TtY7Ste24KWrULh0sRLzi52ABbKd9kCEdTbTF4DaO_xfw', 'expiresIn': 1799999}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="J2" s="12" t="n"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" s="6">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0001</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="14" t="inlineStr">
         <is>
           <t>NoAuthentication</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>使用正常数据，但不带Authentication</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": ${real_name},"email": ${email},"mobile": ${mobile},"password": "000000","companyId": 15,"account": ${account}}</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="H3" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I3" s="15" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="J3" s="14" t="n"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" s="6">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0002</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>使用正常数据</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": ${real_name},"email": ${email},"mobile": ${mobile},"password": "000000","companyId": 15,"account": ${account}}</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="J4" s="14" t="n"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" s="6">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0003</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>不输入realName</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": "","email": ${email},"mobile": ${mobile},"password": "000000","companyId": 15,"account": ${account}}</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I5" s="15" t="inlineStr">
         <is>
           <t>真实姓名必填，错误</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="J5" s="14" t="n"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" s="6">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0004</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>不输入email</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": ${real_name},"email": "","mobile": ${mobile},"password": "000000","companyId": 15,"account": ${account}}</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="H6" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
         <is>
           <t>邮箱必填，错误</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="J6" s="14" t="n"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" s="6">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0005</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="14" t="inlineStr">
         <is>
           <t>不输入mobile</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": ${real_name},"email": ${email},"mobile": "","password": "000000","companyId": 15,"account": ${account}}</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I7" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="J7" s="14" t="n"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" s="6">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0006</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>不输入password</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": ${real_name},"email": ${email},"mobile": ${mobile},"password": "","companyId": 15,"account": ${account}}</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="H8" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
         <is>
           <t>待定</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="J8" s="14" t="n"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" s="6">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0007</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>不输入companyId</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": ${real_name},"email": ${email},"mobile": ${mobile},"password": "000000","companyId": "","account": ${account}}</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="J9" s="14" t="n"/>
+    </row>
+    <row r="10" ht="36" customHeight="1" s="6">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0008</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>不输入account</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>{"realName": "test202002201461","email": "7361705507@test.com","mobile": "13143742906","password": "000000","companyId": 15,"account": ""}</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="12" t="inlineStr">
+        <is>
+          <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="J10" s="14" t="n"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" s="6">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0009</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="14" t="inlineStr">
         <is>
           <t>输入重复的realName</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="H11" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test03","email": "7361705508@test.com","mobile": "13143742907","password": "000000","companyId": 15,"account": "test008"}</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="15" t="inlineStr">
         <is>
           <t>待定</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="J11" s="14" t="n"/>
+    </row>
+    <row r="12" ht="36" customHeight="1" s="6">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0010</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="14" t="inlineStr">
         <is>
           <t>输入重复的email</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="H12" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201462","email": "test1@qq.com","mobile": "13143742908","password": "000000","companyId": 15,"account": "test009"}</t>
         </is>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '邮箱被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="J12" s="14" t="n"/>
+    </row>
+    <row r="13" ht="36" customHeight="1" s="6">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0011</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="14" t="inlineStr">
         <is>
           <t>输入重复的mobile</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H13" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201463","email": "7361705509@test.com","mobile": "13143742986","password": "000000","companyId": 15,"account": "test010"}</t>
         </is>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '手机号被占用', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="J13" s="14" t="n"/>
+    </row>
+    <row r="14" ht="36" customHeight="1" s="6">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0012</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="14" t="inlineStr">
         <is>
           <t>输入不存在companyId</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="H14" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201464","email": "7361705510@test.com","mobile": "13143742909","password": "000000","companyId": 1234,"account": "test011"}</t>
         </is>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '\n### Error updating database.  Cause: java.sql.SQLIntegrityConstraintViolationException: Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`))\n### The error may exist in cn/julytech/upms/mapper/UserMapper.java (best guess)\n### The error may involve cn.julytech.upms.mapper.UserMapper.insert-Inline\n### The error occurred while setting parameters\n### SQL: INSERT INTO jdt_user  ( uuid, lastModifiedDate, lastModifiedBy, mobile, passwordHash, realName, companyId, createdDate, createdBy, state, email, account )  VALUES  ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, ? )\n### Cause: java.sql.SQLIntegrityConstraintViolationException: Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`))\n; Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`)); nested exception is java.sql.SQLIntegrityConstraintViolationException: Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`))', 'data': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="J14" s="14" t="n"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" s="6">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0013</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="14" t="inlineStr">
         <is>
           <t>输入重复的account</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="H15" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201565","email": "73617055011@test.com","mobile": "13143742910","password": "000000","companyId": 15,"account": "test03"}</t>
         </is>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>{'code': 10000, 'message': '用户名被占用', 'data': None}</t>
-        </is>
-      </c>
+      <c r="J15" s="14" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -2245,85 +2251,603 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="0"/>
+  <cols>
+    <col width="8.62962962962963" customWidth="1" style="6" min="1" max="2"/>
+    <col width="8.12962962962963" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.75" customWidth="1" style="6" min="4" max="4"/>
+    <col width="23.25" customWidth="1" style="6" min="5" max="5"/>
+    <col width="30.6296296296296" customWidth="1" style="6" min="6" max="7"/>
+    <col width="13.3796296296296" customWidth="1" style="6" min="8" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>系统模块</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>用例说明</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>失败原因</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" s="6">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>0A001</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>使用正常数据</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>1.使用正常数据进行新增用户</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>新增成功,账号状态为未激活</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" s="6">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>0A002</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>不输入用户姓名</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>其余数据均正常，但不输入用户姓名</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>code:估计为失败...swagger没有写</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" s="6">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>0A003</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>不输入邮箱</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>其余数据均正常，但不输入邮箱</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>code:估计为失败...swagger没有写</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" s="6">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>0A004</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>不输入手机号</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>其余数据均正常，但不输入手机号</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>code:估计为失败...swagger没有写</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="n"/>
+      <c r="I5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" s="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>0A005</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>不输入密码</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>其余数据均正常，但不输入密码</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>code:估计为失败...swagger没有写</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" s="6">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>0A006</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>不输入公司id</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>其余数据均正常，但不输入公司id</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>code:估计为失败...swagger没有写</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" s="6">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>0A007</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>不输入账号</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>1.用户已登录
+2.用户有权限进行新增用户</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>其余数据均正常，但不输入登陆账号</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>code:估计为失败...swagger没有写</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B12" pane="bottomLeft" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="8.133333333333329"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13.75"/>
-    <col customWidth="1" max="5" min="5" style="1" width="23.25"/>
-    <col customWidth="1" max="7" min="6" style="1" width="30.6333333333333"/>
-    <col customWidth="1" max="9" min="8" style="1" width="13.3833333333333"/>
+    <col width="10" customWidth="1" style="6" min="1" max="1"/>
+    <col width="21.5" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>key</t>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>real_name</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>test210302163942</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>test210302163942</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>15110995137</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>sysadmin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>companyId</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>test210302163943</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>admin_username</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>admin_password</t>
+        </is>
+      </c>
+      <c r="B9" s="18" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="0"/>
+  <cols>
+    <col width="8.37962962962963" customWidth="1" style="6" min="1" max="1"/>
+    <col width="5.12962962962963" customWidth="1" style="6" min="2" max="2"/>
+    <col width="6.12962962962963" customWidth="1" style="6" min="3" max="4"/>
+    <col width="5.12962962962963" customWidth="1" style="6" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名字</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>等级</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>属性1</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>属性2</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>天赋</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>real_name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>test1614176625960</t>
-        </is>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>四九幻曦</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>1614176692056@test.com</t>
-        </is>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>圣甲狂战</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>战斗</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>mobile</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>15110995100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>account</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>test1614176625960</t>
-        </is>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>时空界皇</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>光</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>次元</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>